--- a/02.Config/config.xlsx
+++ b/02.Config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\02.Public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.Dev\01.Project\02.AttendanceServer\02.Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA8143-694B-4596-ADE9-E9C6D68A6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7FB5E9-2540-4FFE-A4ED-7036BFF9612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6354BC04-B487-417A-81BA-EC62C1F93913}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6354BC04-B487-417A-81BA-EC62C1F93913}"/>
   </bookViews>
   <sheets>
     <sheet name="ip_machines" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>192.168.1.31</t>
   </si>
@@ -164,6 +164,12 @@
   </si>
   <si>
     <t>Nguyen Thi Thanh Vy</t>
+  </si>
+  <si>
+    <t>access_db</t>
+  </si>
+  <si>
+    <t>D:\OneDrive - TIQN\04.HR DB\ZK ATTENDANCE.MDB</t>
   </si>
 </sst>
 </file>
@@ -395,8 +401,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6600EFD1-F5E8-4F42-A8F3-E9FC7A212B95}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{6600EFD1-F5E8-4F42-A8F3-E9FC7A212B95}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6600EFD1-F5E8-4F42-A8F3-E9FC7A212B95}" name="Table2" displayName="Table2" ref="A1:C10" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{6600EFD1-F5E8-4F42-A8F3-E9FC7A212B95}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5A38E9EF-0B04-4D82-9003-CB80871702C0}" name="Name"/>
     <tableColumn id="2" xr3:uid="{1D4BBC50-06DD-4C6D-99BD-A980A31051FC}" name="Name2"/>
@@ -800,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FE71E-74BD-48D9-9C0B-CED098C2B1FB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -906,6 +912,14 @@
         <v>27</v>
       </c>
       <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -926,7 +940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289C74CE-43D2-4956-8D26-E8B2BA425655}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/02.Config/config.xlsx
+++ b/02.Config/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03.Dev\01.Project\02.AttendanceServer\02.Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7FB5E9-2540-4FFE-A4ED-7036BFF9612C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43B2A8-F71C-40FE-94D1-4EF76BBE829D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6354BC04-B487-417A-81BA-EC62C1F93913}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6354BC04-B487-417A-81BA-EC62C1F93913}"/>
   </bookViews>
   <sheets>
     <sheet name="ip_machines" sheetId="1" r:id="rId1"/>
@@ -40,18 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
-    <t>192.168.1.31</t>
-  </si>
-  <si>
-    <t>192.168.1.32</t>
-  </si>
-  <si>
-    <t>192.168.1.33</t>
-  </si>
-  <si>
-    <t>192.168.1.34</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -64,27 +52,15 @@
     <t>IP</t>
   </si>
   <si>
-    <t>\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\7 Resigned list\Resigned report.xlsx</t>
-  </si>
-  <si>
-    <t>\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\05.Nurse\5. Maternity leave\Danh sách nhân viên nữ mang thai.xlsx</t>
-  </si>
-  <si>
     <t>Danh sách nhân viên nữ mang thai</t>
   </si>
   <si>
-    <t>\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\Toray's employees information All in one.xlsx</t>
-  </si>
-  <si>
     <t>Toray's employees information All in one</t>
   </si>
   <si>
     <t>Resigned report</t>
   </si>
   <si>
-    <t>\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\4. EMPLOYEE\7.OT request</t>
-  </si>
-  <si>
     <t>OT request</t>
   </si>
   <si>
@@ -169,14 +145,38 @@
     <t>access_db</t>
   </si>
   <si>
-    <t>D:\OneDrive - TIQN\04.HR DB\ZK ATTENDANCE.MDB</t>
+    <t>D:\OneDrive - TIQN\Shared Documents - group-it\04.HR DB\ZK ATTENDANCE.MDB</t>
+  </si>
+  <si>
+    <t>\\10.0.1.5\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\Toray's employees information All in one.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.0.1.5\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\7 Resigned list\Resigned report.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.0.1.5\tiqn\03.Department\01.Operation Management\03.HR-GA\05.Nurse\5. Maternity leave\Danh sách nhân viên nữ mang thai.xlsx</t>
+  </si>
+  <si>
+    <t>\\10.0.1.5\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\4. EMPLOYEE\7.OT request</t>
+  </si>
+  <si>
+    <t>10.0.1.41</t>
+  </si>
+  <si>
+    <t>10.0.1.42</t>
+  </si>
+  <si>
+    <t>10.0.1.43</t>
+  </si>
+  <si>
+    <t>10.0.1.44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,6 +195,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -226,13 +232,22 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -243,28 +258,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -275,11 +268,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -287,15 +284,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -746,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EBA017-E946-45D2-9470-ABE41CCBB9FA}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -756,43 +752,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>0</v>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -808,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721FE71E-74BD-48D9-9C0B-CED098C2B1FB}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -821,112 +817,112 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{8F64EE08-73F5-4DA5-91C3-D424BA7B7DBD}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{B89DC985-5B7C-4536-B175-E107F8D3392B}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{62034D28-22E1-4E8D-8AE0-4315F4FEF4DB}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{06546D36-137D-428D-802B-892800614F10}"/>
+    <hyperlink ref="C3" r:id="rId1" display="\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\7 Resigned list\Resigned report.xlsx" xr:uid="{8F64EE08-73F5-4DA5-91C3-D424BA7B7DBD}"/>
+    <hyperlink ref="C4" r:id="rId2" display="\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\05.Nurse\5. Maternity leave\Danh sách nhân viên nữ mang thai.xlsx" xr:uid="{B89DC985-5B7C-4536-B175-E107F8D3392B}"/>
+    <hyperlink ref="C2" r:id="rId3" display="\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\Toray's employees information All in one.xlsx" xr:uid="{62034D28-22E1-4E8D-8AE0-4315F4FEF4DB}"/>
+    <hyperlink ref="C5" r:id="rId4" display="\\192.168.1.13\tiqn\03.Department\01.Operation Management\03.HR-GA\01.HR\4. EMPLOYEE\7.OT request" xr:uid="{06546D36-137D-428D-802B-892800614F10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
@@ -952,13 +948,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -966,10 +962,10 @@
         <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -977,10 +973,10 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +984,10 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -999,10 +995,10 @@
         <v>623</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1006,10 @@
         <v>916</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1021,10 +1017,10 @@
         <v>920</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
